--- a/data/trans_orig/P15C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P15C-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4900</v>
+        <v>5137</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05586944040534152</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2592628112462962</v>
+        <v>0.2718022723305993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6659</v>
+        <v>7150</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08115466317352035</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2674831059598982</v>
+        <v>0.2871999970877794</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>3076</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8664</v>
+        <v>7983</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07024266400165838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02151875306152664</v>
+        <v>0.02100784895885005</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.197827097215816</v>
+        <v>0.1822852959262239</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6545</v>
+        <v>6157</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1087788951452576</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3462864366337521</v>
+        <v>0.3257897582024972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4680</v>
+        <v>5676</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04601677239411232</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1879968991456193</v>
+        <v>0.2279801985943088</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -857,19 +857,19 @@
         <v>3202</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8607</v>
+        <v>8346</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0731021668066419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02262638707753832</v>
+        <v>0.02226320107545097</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1965200391458964</v>
+        <v>0.1905707129213027</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>12092</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7587</v>
+        <v>7673</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15812</v>
+        <v>16040</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6397783475876309</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4014545864024062</v>
+        <v>0.4059625515195054</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8365975525655024</v>
+        <v>0.8486587065024898</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -907,19 +907,19 @@
         <v>17919</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13401</v>
+        <v>12716</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21830</v>
+        <v>21845</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7197646644247758</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5383181649938644</v>
+        <v>0.5107722604142881</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8769002560009921</v>
+        <v>0.8774909194714776</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -928,19 +928,19 @@
         <v>30010</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23386</v>
+        <v>23192</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35623</v>
+        <v>35217</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6852460591868723</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5339920618283834</v>
+        <v>0.5295509643183571</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8134083558618271</v>
+        <v>0.8041381144534634</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>2814</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>873</v>
+        <v>822</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7303</v>
+        <v>6714</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1489102140318815</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04618042745489825</v>
+        <v>0.04348781751434307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3863917772476987</v>
+        <v>0.3552435490658522</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,19 +978,19 @@
         <v>3811</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8324</v>
+        <v>7998</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1530639000075915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03997526631137803</v>
+        <v>0.03950639907355968</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3343781549007744</v>
+        <v>0.3212611254960694</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -999,19 +999,19 @@
         <v>6625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2784</v>
+        <v>3382</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12222</v>
+        <v>12727</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.151271350329755</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06356826204459355</v>
+        <v>0.07722201879814393</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2790818476940897</v>
+        <v>0.290593324721473</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4249</v>
+        <v>4620</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04666310282988845</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2248029289225782</v>
+        <v>0.24446859355615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3683</v>
+        <v>4288</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02013775967507234</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0840904747573511</v>
+        <v>0.0979112604852676</v>
       </c>
     </row>
     <row r="9">
@@ -1213,19 +1213,19 @@
         <v>4984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1867</v>
+        <v>1913</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10624</v>
+        <v>10170</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1448299679365205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05424012329922397</v>
+        <v>0.05558804245771776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3087221614691893</v>
+        <v>0.2955322797344591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6183</v>
+        <v>5871</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06291896978362765</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2031463656727613</v>
+        <v>0.1928992006222789</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1255,19 +1255,19 @@
         <v>6899</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2961</v>
+        <v>2935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12535</v>
+        <v>13098</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1063863897969707</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0456511350985038</v>
+        <v>0.0452550779679803</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.193281769804266</v>
+        <v>0.2019658068279497</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7809</v>
+        <v>8559</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04883926627782569</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2269263693974261</v>
+        <v>0.2487073570648449</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5837</v>
+        <v>4556</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03343529868400415</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1917804109491681</v>
+        <v>0.1496712033355218</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8939</v>
+        <v>8669</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04160966774764031</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1378364382470323</v>
+        <v>0.1336701443149163</v>
       </c>
     </row>
     <row r="13">
@@ -1355,19 +1355,19 @@
         <v>16691</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11003</v>
+        <v>10785</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23035</v>
+        <v>22501</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4850165911690147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3197262946444836</v>
+        <v>0.3133888534740253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6693445987402254</v>
+        <v>0.6538351921633281</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1376,19 +1376,19 @@
         <v>18210</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12321</v>
+        <v>12270</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23785</v>
+        <v>23476</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5982736697986165</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4047886431379758</v>
+        <v>0.4031147514291253</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7814393913549343</v>
+        <v>0.7713069876534271</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1397,19 +1397,19 @@
         <v>34901</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26444</v>
+        <v>27249</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43432</v>
+        <v>43027</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5381719359986207</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4077620872609343</v>
+        <v>0.4201728685103187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6697201642917174</v>
+        <v>0.6634805957233588</v>
       </c>
     </row>
     <row r="14">
@@ -1426,19 +1426,19 @@
         <v>7333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3038</v>
+        <v>3087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13218</v>
+        <v>14319</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2130790474405182</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08828690155186054</v>
+        <v>0.08971194676562211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3840751276904528</v>
+        <v>0.4160826904017432</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1447,19 +1447,19 @@
         <v>7584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3145</v>
+        <v>3314</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13106</v>
+        <v>13123</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2491573965761552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1033274041084977</v>
+        <v>0.1088869402072118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4306044059679816</v>
+        <v>0.4311689635749682</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1468,19 +1468,19 @@
         <v>14916</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8610</v>
+        <v>9116</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23316</v>
+        <v>22553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2300118264985016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1327690355661858</v>
+        <v>0.1405649764907705</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.359532707973473</v>
+        <v>0.3477653716604861</v>
       </c>
     </row>
     <row r="15">
@@ -1497,19 +1497,19 @@
         <v>3725</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>939</v>
+        <v>1028</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8640</v>
+        <v>8367</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1082351271761209</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02729461258344522</v>
+        <v>0.02987675273238511</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2510498529207892</v>
+        <v>0.2431350441712331</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5341</v>
+        <v>5425</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05621466515759648</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1754730488977895</v>
+        <v>0.1782401881782599</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1539,19 +1539,19 @@
         <v>5436</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1863</v>
+        <v>2503</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11066</v>
+        <v>10536</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08382017995826675</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02873000855216316</v>
+        <v>0.03859372715650806</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1706395576952288</v>
+        <v>0.162469060176863</v>
       </c>
     </row>
     <row r="16">
@@ -1690,19 +1690,19 @@
         <v>5024</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1932</v>
+        <v>1992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10492</v>
+        <v>10479</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1164384895941504</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04477603294283562</v>
+        <v>0.04617786822808671</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2431633483320313</v>
+        <v>0.2428747239193838</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4001</v>
+        <v>4881</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03741732590446815</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1570544802052675</v>
+        <v>0.1915988622502187</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -1732,19 +1732,19 @@
         <v>5977</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2036</v>
+        <v>2115</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12332</v>
+        <v>12171</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08710201240366851</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02966465816488268</v>
+        <v>0.0308165106276575</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1797073994069489</v>
+        <v>0.1773690612066654</v>
       </c>
     </row>
     <row r="19">
@@ -1761,19 +1761,19 @@
         <v>6089</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2018</v>
+        <v>2133</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11431</v>
+        <v>11591</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1411182832317835</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04677525926281454</v>
+        <v>0.04943524335719968</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2649323896688413</v>
+        <v>0.2686466565020851</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4901</v>
+        <v>4169</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04002685132800075</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1923656840453015</v>
+        <v>0.1636421060709632</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1803,19 +1803,19 @@
         <v>7108</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13592</v>
+        <v>13697</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1035882552275806</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04525976463055512</v>
+        <v>0.04523343337761914</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1980675178392863</v>
+        <v>0.1995978885666268</v>
       </c>
     </row>
     <row r="20">
@@ -1832,19 +1832,19 @@
         <v>17748</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11501</v>
+        <v>10403</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24623</v>
+        <v>24279</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4113431767803145</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.266551028997239</v>
+        <v>0.2411014837634496</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5706984771396153</v>
+        <v>0.5627243298678544</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1853,19 +1853,19 @@
         <v>15526</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10157</v>
+        <v>10331</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20228</v>
+        <v>20367</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.609454382594351</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3986914887908382</v>
+        <v>0.4055154883638697</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7939832727794214</v>
+        <v>0.7994742300260965</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -1874,19 +1874,19 @@
         <v>33274</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24829</v>
+        <v>24586</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40993</v>
+        <v>41436</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.48489163644823</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.361823483278363</v>
+        <v>0.3582845965020702</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5973729513819828</v>
+        <v>0.6038332123348951</v>
       </c>
     </row>
     <row r="21">
@@ -1903,19 +1903,19 @@
         <v>11266</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6274</v>
+        <v>5712</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18388</v>
+        <v>18499</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2611167755287088</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1454177448904328</v>
+        <v>0.1323796998807805</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4261735449547671</v>
+        <v>0.4287512921935596</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1924,19 +1924,19 @@
         <v>5120</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1831</v>
+        <v>1936</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10420</v>
+        <v>10269</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2009636928959943</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07186197507893922</v>
+        <v>0.07598196721369853</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4090168184670974</v>
+        <v>0.4030870653036928</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -1945,19 +1945,19 @@
         <v>16386</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9829</v>
+        <v>9743</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25188</v>
+        <v>25225</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2387850424309562</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1432373548299964</v>
+        <v>0.1419765855089503</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.367054962434042</v>
+        <v>0.3675986991055121</v>
       </c>
     </row>
     <row r="22">
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6381</v>
+        <v>5967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04591648036520535</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1478917427573218</v>
+        <v>0.1383013556469626</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1995,19 +1995,19 @@
         <v>2857</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7795</v>
+        <v>6927</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1121377472771857</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03391501774786865</v>
+        <v>0.03256167442289593</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3059609216807102</v>
+        <v>0.2718966380166286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2016,19 +2016,19 @@
         <v>4838</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1749</v>
+        <v>1889</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10106</v>
+        <v>10348</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07050101690679746</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02548297511221698</v>
+        <v>0.02752213819682897</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1472649243654421</v>
+        <v>0.1507942912017812</v>
       </c>
     </row>
     <row r="23">
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5409</v>
+        <v>4248</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02406679449983751</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1253605679494687</v>
+        <v>0.09844894939266656</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5226</v>
+        <v>5348</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01513203658276719</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0761492420169947</v>
+        <v>0.07792877414352833</v>
       </c>
     </row>
     <row r="24">
@@ -2183,19 +2183,19 @@
         <v>4016</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>953</v>
+        <v>1009</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9041</v>
+        <v>8760</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1627992973331644</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03861916622521552</v>
+        <v>0.04089216042878792</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3664753424963797</v>
+        <v>0.3550795074539698</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3862</v>
+        <v>4083</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08625752064475366</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3544594868846161</v>
+        <v>0.3747277466607316</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2225,19 +2225,19 @@
         <v>4956</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1843</v>
+        <v>1873</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9698</v>
+        <v>10038</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1393523026407187</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05183378846572574</v>
+        <v>0.05266394398897011</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2726922444589786</v>
+        <v>0.2822520663986348</v>
       </c>
     </row>
     <row r="26">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6984</v>
+        <v>6756</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0885839593381912</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2831107500304614</v>
+        <v>0.2738453953194647</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4862</v>
+        <v>4845</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1211607332032227</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4462875364227159</v>
+        <v>0.4446754106589146</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2296,19 +2296,19 @@
         <v>3505</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1096</v>
+        <v>1053</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9444</v>
+        <v>9226</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09856318214902059</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03081768526084178</v>
+        <v>0.02959575728999478</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2655317280965243</v>
+        <v>0.2594186300524848</v>
       </c>
     </row>
     <row r="27">
@@ -2325,19 +2325,19 @@
         <v>12520</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7095</v>
+        <v>7858</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17654</v>
+        <v>18180</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5074896422268211</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2876021674984444</v>
+        <v>0.318513195501834</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7156008139202775</v>
+        <v>0.7369410805603565</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -2346,19 +2346,19 @@
         <v>7646</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3755</v>
+        <v>3664</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9920</v>
+        <v>9909</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7017581581302237</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.344679795757698</v>
+        <v>0.3362927491766701</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9104804567645302</v>
+        <v>0.9095322544232306</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>20</v>
@@ -2367,19 +2367,19 @@
         <v>20165</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>14197</v>
+        <v>13571</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>26146</v>
+        <v>26104</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5669997954838993</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3991895883857632</v>
+        <v>0.3815865559753076</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7351740057295005</v>
+        <v>0.7339900821940901</v>
       </c>
     </row>
     <row r="28">
@@ -2396,19 +2396,19 @@
         <v>4999</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1578</v>
+        <v>1554</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11101</v>
+        <v>10271</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.202644543265258</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06395079461568251</v>
+        <v>0.06298941737430652</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4499994344662357</v>
+        <v>0.4163535266948228</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4258</v>
+        <v>3975</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09082358802179992</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.39077769171979</v>
+        <v>0.3648225517475444</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2438,19 +2438,19 @@
         <v>5989</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2533</v>
+        <v>1948</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12667</v>
+        <v>12841</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.168390499819536</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07123254859149547</v>
+        <v>0.05477624870323902</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3561722921750793</v>
+        <v>0.3610452187963866</v>
       </c>
     </row>
     <row r="29">
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5069</v>
+        <v>5191</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03848255783656529</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.205478335859777</v>
+        <v>0.2104278222106881</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3954</v>
+        <v>4994</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0266942199068253</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1111847703629543</v>
+        <v>0.1404160363225939</v>
       </c>
     </row>
     <row r="30">
@@ -2652,19 +2652,19 @@
         <v>15080</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8379</v>
+        <v>8968</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23323</v>
+        <v>23496</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1244963305786494</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06917141207470293</v>
+        <v>0.07403227240650677</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1925488647480084</v>
+        <v>0.1939740063850067</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2673,19 +2673,19 @@
         <v>5828</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2000</v>
+        <v>1968</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11651</v>
+        <v>11878</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06355764112981156</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02181155439139643</v>
+        <v>0.02146409109097903</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1270498183728979</v>
+        <v>0.1295258299561417</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>21</v>
@@ -2694,19 +2694,19 @@
         <v>20909</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13347</v>
+        <v>12914</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>30823</v>
+        <v>30578</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09824001240082876</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06270933519122304</v>
+        <v>0.06067924722127855</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1448210019016158</v>
+        <v>0.1436730400064639</v>
       </c>
     </row>
     <row r="33">
@@ -2723,19 +2723,19 @@
         <v>12011</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5411</v>
+        <v>6349</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>19130</v>
+        <v>20413</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09915557766445005</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04466946809381692</v>
+        <v>0.05241864476107189</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1579320224144209</v>
+        <v>0.1685210925268602</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -2744,19 +2744,19 @@
         <v>4503</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1162</v>
+        <v>1053</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11356</v>
+        <v>10446</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04910418622821575</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0126769081901122</v>
+        <v>0.01148096031949507</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1238317902679928</v>
+        <v>0.1139124402367608</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>15</v>
@@ -2765,19 +2765,19 @@
         <v>16514</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>9379</v>
+        <v>9899</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>26938</v>
+        <v>26011</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07759020974009148</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04406615729732121</v>
+        <v>0.04650978013278213</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1265685101295889</v>
+        <v>0.1222129144833919</v>
       </c>
     </row>
     <row r="34">
@@ -2794,19 +2794,19 @@
         <v>59051</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>47840</v>
+        <v>47879</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>71225</v>
+        <v>70266</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4874990131325012</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3949487682368175</v>
+        <v>0.3952731234685252</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5880008586732723</v>
+        <v>0.5800888769963258</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -2815,19 +2815,19 @@
         <v>59300</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>49714</v>
+        <v>50290</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>68067</v>
+        <v>68295</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6466561152927924</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5421248543073758</v>
+        <v>0.5484014735021199</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7422602225945089</v>
+        <v>0.7447518503196593</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>114</v>
@@ -2836,19 +2836,19 @@
         <v>118350</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>103950</v>
+        <v>102894</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>134895</v>
+        <v>131507</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5560741589450636</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4884135946440187</v>
+        <v>0.4834498912368618</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6338082731025768</v>
+        <v>0.6178899217806623</v>
       </c>
     </row>
     <row r="35">
@@ -2865,19 +2865,19 @@
         <v>26413</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17202</v>
+        <v>17042</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37284</v>
+        <v>36161</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2180523965994093</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1420094920954267</v>
+        <v>0.1406894421028514</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3077987331685116</v>
+        <v>0.2985295143552577</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -2886,19 +2886,19 @@
         <v>17503</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10595</v>
+        <v>11123</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>25494</v>
+        <v>26064</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1908709089929777</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1155371379366106</v>
+        <v>0.1212992594582496</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2780066591251948</v>
+        <v>0.2842215918743364</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>41</v>
@@ -2907,19 +2907,19 @@
         <v>43916</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>32418</v>
+        <v>33393</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>57806</v>
+        <v>56980</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2063408584354627</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1523188894858763</v>
+        <v>0.1568996151981232</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2716031785838904</v>
+        <v>0.2677238298022233</v>
       </c>
     </row>
     <row r="36">
@@ -2936,19 +2936,19 @@
         <v>7537</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3496</v>
+        <v>3616</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14109</v>
+        <v>13785</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06222422519243819</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02885904535973393</v>
+        <v>0.02985317538957533</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1164760350265425</v>
+        <v>0.1137998641971156</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -2957,19 +2957,19 @@
         <v>4568</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10050</v>
+        <v>9903</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04981114835620257</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01847205675517673</v>
+        <v>0.01869100070491376</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1095989567509</v>
+        <v>0.107988540093648</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -2978,19 +2978,19 @@
         <v>12105</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7126</v>
+        <v>6300</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>20422</v>
+        <v>19186</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05687587100356822</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.033480021960672</v>
+        <v>0.02960203104912849</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09595252025415227</v>
+        <v>0.09014754821969992</v>
       </c>
     </row>
     <row r="37">
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5248</v>
+        <v>5287</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.008572456832551794</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04332930176524304</v>
+        <v>0.04365031779270593</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6093</v>
+        <v>6032</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.004878889474985246</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02862733798158932</v>
+        <v>0.02834357735970218</v>
       </c>
     </row>
     <row r="38">
@@ -3385,19 +3385,19 @@
         <v>5739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2140</v>
+        <v>2515</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11799</v>
+        <v>12173</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0771366418498033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02875918661439737</v>
+        <v>0.03379595353651401</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1585766599190761</v>
+        <v>0.1636080598518714</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3406,19 +3406,19 @@
         <v>4053</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9762</v>
+        <v>9278</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05036792240842836</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01245141415724272</v>
+        <v>0.01223760313131537</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1213318360379905</v>
+        <v>0.1153185111902797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -3427,19 +3427,19 @@
         <v>9792</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5078</v>
+        <v>4751</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17714</v>
+        <v>16318</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06322883846397634</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03279359177657446</v>
+        <v>0.03067664989787252</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1143876391875203</v>
+        <v>0.1053704997023047</v>
       </c>
     </row>
     <row r="5">
@@ -3456,19 +3456,19 @@
         <v>6988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2980</v>
+        <v>3040</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12923</v>
+        <v>13356</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0939268295934642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04005496117315022</v>
+        <v>0.04085568889110907</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1736914719925076</v>
+        <v>0.1795111303901887</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -3477,19 +3477,19 @@
         <v>4163</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1044</v>
+        <v>1138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9508</v>
+        <v>10839</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05174238996580978</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01297563470475795</v>
+        <v>0.01413831468876747</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1181723966870371</v>
+        <v>0.1347134363139599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -3498,19 +3498,19 @@
         <v>11152</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5929</v>
+        <v>5990</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20054</v>
+        <v>19132</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07200972244279914</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03828550334165175</v>
+        <v>0.03867916508770634</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1294954454167958</v>
+        <v>0.1235438569457395</v>
       </c>
     </row>
     <row r="6">
@@ -3527,19 +3527,19 @@
         <v>49252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40586</v>
+        <v>40454</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56979</v>
+        <v>57353</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6619584554644675</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5454863283684493</v>
+        <v>0.5437156863933796</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7658175534082524</v>
+        <v>0.7708360933609095</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -3548,19 +3548,19 @@
         <v>48400</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40127</v>
+        <v>38722</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57353</v>
+        <v>57283</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6015426517027672</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.498729749196747</v>
+        <v>0.4812628380637436</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7128222621605288</v>
+        <v>0.7119498509568396</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>90</v>
@@ -3569,19 +3569,19 @@
         <v>97651</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84593</v>
+        <v>85508</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>109690</v>
+        <v>109723</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6305691646186864</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5462494526767945</v>
+        <v>0.5521583004221854</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7083059874344273</v>
+        <v>0.7085239994696607</v>
       </c>
     </row>
     <row r="7">
@@ -3598,19 +3598,19 @@
         <v>8302</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3311</v>
+        <v>3822</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15579</v>
+        <v>16090</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1115757783938892</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04449990697053065</v>
+        <v>0.051369665893396</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2093852007616205</v>
+        <v>0.2162601892488652</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -3619,19 +3619,19 @@
         <v>17648</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10402</v>
+        <v>11390</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25773</v>
+        <v>26697</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2193391951497718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1292822631080163</v>
+        <v>0.141560156189415</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3203254154548524</v>
+        <v>0.331814143941576</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -3640,19 +3640,19 @@
         <v>25949</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17836</v>
+        <v>17149</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37396</v>
+        <v>36971</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1675647253328006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1151741187888992</v>
+        <v>0.1107365206146655</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.241481247973467</v>
+        <v>0.2387359652604475</v>
       </c>
     </row>
     <row r="8">
@@ -3669,19 +3669,19 @@
         <v>4122</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1244</v>
+        <v>990</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10190</v>
+        <v>10567</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05540229469837576</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01671493343906541</v>
+        <v>0.01331056774531172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.136962417392555</v>
+        <v>0.1420204527630698</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3690,19 +3690,19 @@
         <v>6196</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2056</v>
+        <v>2953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12606</v>
+        <v>13278</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07700784077322281</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02554847425205687</v>
+        <v>0.03670107509201621</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1566819019485452</v>
+        <v>0.1650274857556635</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -3711,19 +3711,19 @@
         <v>10318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4991</v>
+        <v>5134</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17345</v>
+        <v>17904</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06662754914173752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0322259358060844</v>
+        <v>0.03315095879885695</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1120061375139912</v>
+        <v>0.1156094865083958</v>
       </c>
     </row>
     <row r="9">
@@ -3862,19 +3862,19 @@
         <v>4803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1838</v>
+        <v>1894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10733</v>
+        <v>11088</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04960514430263752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01897780206980654</v>
+        <v>0.01955948983062855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1108447165509688</v>
+        <v>0.1145024685233638</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3883,19 +3883,19 @@
         <v>2826</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7526</v>
+        <v>7675</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03397463879215636</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01071196673384335</v>
+        <v>0.01046402957191188</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09048498290088078</v>
+        <v>0.09227530474236695</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -3904,19 +3904,19 @@
         <v>7629</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3756</v>
+        <v>3747</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14987</v>
+        <v>15235</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04238294675879768</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02086366692162063</v>
+        <v>0.02081397662324327</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08325906593834806</v>
+        <v>0.08463856915611399</v>
       </c>
     </row>
     <row r="12">
@@ -3933,19 +3933,19 @@
         <v>4881</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1003</v>
+        <v>1897</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12554</v>
+        <v>12532</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05040850446266696</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01035482612684087</v>
+        <v>0.01959337213635821</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1296488642446521</v>
+        <v>0.1294150551331293</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3954,19 +3954,19 @@
         <v>7167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3032</v>
+        <v>3208</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13742</v>
+        <v>14237</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08616880576567698</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0364503257630582</v>
+        <v>0.03857661205667327</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1652219476567557</v>
+        <v>0.1711708125664451</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3975,19 +3975,19 @@
         <v>12048</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6779</v>
+        <v>6225</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22441</v>
+        <v>21081</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06693183187932587</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0376588731468197</v>
+        <v>0.03458109806044916</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1246687552410832</v>
+        <v>0.1171145464036278</v>
       </c>
     </row>
     <row r="13">
@@ -4004,19 +4004,19 @@
         <v>64557</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55093</v>
+        <v>55349</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73772</v>
+        <v>74758</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6666933308935233</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5689582748810809</v>
+        <v>0.5716015334962932</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7618562101948322</v>
+        <v>0.7720403417617918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -4025,19 +4025,19 @@
         <v>47120</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37955</v>
+        <v>37244</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55805</v>
+        <v>56646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5665406631948243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4563375932576758</v>
+        <v>0.4477925307880145</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6709636347333973</v>
+        <v>0.6810741700567746</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -4046,19 +4046,19 @@
         <v>111678</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97929</v>
+        <v>98091</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124978</v>
+        <v>125655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6204170060377775</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5440372375423891</v>
+        <v>0.5449386614640864</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6943076671818806</v>
+        <v>0.6980657653480696</v>
       </c>
     </row>
     <row r="14">
@@ -4075,19 +4075,19 @@
         <v>15157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8809</v>
+        <v>9257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23225</v>
+        <v>23586</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1565306402168378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09097494865332841</v>
+        <v>0.09559933590265324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.239848108697632</v>
+        <v>0.2435812789152026</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -4096,19 +4096,19 @@
         <v>10486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5208</v>
+        <v>5074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17508</v>
+        <v>16935</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1260702648448197</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0626161323277811</v>
+        <v>0.06100873549097913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.210501673737345</v>
+        <v>0.2036190362584841</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -4117,19 +4117,19 @@
         <v>25643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17934</v>
+        <v>17262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37719</v>
+        <v>37342</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1424561851041281</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09963222078459877</v>
+        <v>0.09589931344591486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2095479433207836</v>
+        <v>0.2074521785206961</v>
       </c>
     </row>
     <row r="15">
@@ -4146,19 +4146,19 @@
         <v>7433</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3034</v>
+        <v>3039</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13910</v>
+        <v>13734</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07676238012433435</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0313279490487645</v>
+        <v>0.0313893665403155</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1436506567447835</v>
+        <v>0.1418360227771468</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -4167,19 +4167,19 @@
         <v>15574</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9305</v>
+        <v>8823</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24115</v>
+        <v>23090</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1872456274025226</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.111871822788211</v>
+        <v>0.1060760767933115</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2899455605270717</v>
+        <v>0.2776136744015672</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>22</v>
@@ -4188,19 +4188,19 @@
         <v>23007</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>14833</v>
+        <v>15240</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>33665</v>
+        <v>33963</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1278120302199708</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08240585831832682</v>
+        <v>0.08466540639150968</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1870260937455192</v>
+        <v>0.1886770671340417</v>
       </c>
     </row>
     <row r="16">
@@ -4339,19 +4339,19 @@
         <v>2782</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7312</v>
+        <v>8316</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04115261856164786</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0132281764620186</v>
+        <v>0.01324904431433885</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1081685374750783</v>
+        <v>0.1230254120831218</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -4360,19 +4360,19 @@
         <v>6288</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2885</v>
+        <v>2206</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12190</v>
+        <v>11887</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09896485938737468</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04540899369149061</v>
+        <v>0.03472567910586528</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1918719398555565</v>
+        <v>0.1870989450319315</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -4381,19 +4381,19 @@
         <v>9069</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4565</v>
+        <v>4194</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16371</v>
+        <v>16043</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06916276790339573</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03481080229155216</v>
+        <v>0.03198509085677419</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1248460538153875</v>
+        <v>0.122342525561661</v>
       </c>
     </row>
     <row r="19">
@@ -4410,19 +4410,19 @@
         <v>6165</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2167</v>
+        <v>2213</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12265</v>
+        <v>11610</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.091199266220602</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03206081864775006</v>
+        <v>0.0327330776285254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1814444266689435</v>
+        <v>0.1717581344597475</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -4434,16 +4434,16 @@
         <v>961</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8230</v>
+        <v>7956</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0475946152173995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01512491706280814</v>
+        <v>0.01512984434335157</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1295461868910208</v>
+        <v>0.1252263718104443</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -4452,19 +4452,19 @@
         <v>9189</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4068</v>
+        <v>4760</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16536</v>
+        <v>16474</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07007272330945126</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03102177743933607</v>
+        <v>0.03629903802584231</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1261008650287395</v>
+        <v>0.1256338637451675</v>
       </c>
     </row>
     <row r="20">
@@ -4481,19 +4481,19 @@
         <v>44194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35800</v>
+        <v>36580</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51188</v>
+        <v>51492</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6537912555270378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.529607498609353</v>
+        <v>0.5411547396918531</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7572471404141288</v>
+        <v>0.7617562115434388</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -4502,19 +4502,19 @@
         <v>29932</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22309</v>
+        <v>22746</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38844</v>
+        <v>39023</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4711186418508542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3511414596109136</v>
+        <v>0.3580155675230998</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6113955513037973</v>
+        <v>0.6142161465643567</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>73</v>
@@ -4523,19 +4523,19 @@
         <v>74126</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62881</v>
+        <v>62994</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>85062</v>
+        <v>85189</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5652859992588816</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4795339389485875</v>
+        <v>0.4803972906201975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6486808517609123</v>
+        <v>0.6496549345869893</v>
       </c>
     </row>
     <row r="21">
@@ -4552,19 +4552,19 @@
         <v>7298</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13584</v>
+        <v>12860</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1079677898785792</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05131782038376158</v>
+        <v>0.05134408644918355</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2009625582507578</v>
+        <v>0.1902420411862266</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -4573,19 +4573,19 @@
         <v>10059</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5306</v>
+        <v>4632</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17643</v>
+        <v>16848</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1583300811801006</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08351668889718952</v>
+        <v>0.07290374035548036</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2776947660365693</v>
+        <v>0.2651877130835408</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
@@ -4594,19 +4594,19 @@
         <v>17357</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10514</v>
+        <v>10116</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>26027</v>
+        <v>26722</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1323684233845628</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08018245054983517</v>
+        <v>0.07714800921781441</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1984807471738404</v>
+        <v>0.2037815439605256</v>
       </c>
     </row>
     <row r="22">
@@ -4623,19 +4623,19 @@
         <v>6148</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2258</v>
+        <v>2896</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13080</v>
+        <v>12834</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.090943412846345</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03340642551866257</v>
+        <v>0.04284872033739702</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1935021312916627</v>
+        <v>0.1898671615134247</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4644,19 +4644,19 @@
         <v>14231</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7560</v>
+        <v>8222</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21946</v>
+        <v>21455</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.223991802364271</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1189947117299046</v>
+        <v>0.1294082566163861</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3454234990132427</v>
+        <v>0.337704511353811</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -4665,19 +4665,19 @@
         <v>20378</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12161</v>
+        <v>12646</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30126</v>
+        <v>30526</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.155405630654338</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0927368169034129</v>
+        <v>0.09643655186083912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2297450995020346</v>
+        <v>0.232794518757837</v>
       </c>
     </row>
     <row r="23">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5042</v>
+        <v>6051</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01494565696578823</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07458175034913642</v>
+        <v>0.08951342583978188</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5133</v>
+        <v>5085</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007704455489370631</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03914513276873181</v>
+        <v>0.0387800323088287</v>
       </c>
     </row>
     <row r="24">
@@ -4832,19 +4832,19 @@
         <v>3914</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11295</v>
+        <v>10589</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09042111122691172</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02265998932269008</v>
+        <v>0.02239616874399451</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2609533274229833</v>
+        <v>0.244643780014128</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4853,19 +4853,19 @@
         <v>3805</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8869</v>
+        <v>9531</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1394288709223052</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0372049315258729</v>
+        <v>0.03598261591842301</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3250001477550313</v>
+        <v>0.349263774006092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -4874,19 +4874,19 @@
         <v>7719</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3018</v>
+        <v>3031</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16323</v>
+        <v>15745</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1093718715247894</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04276768734646517</v>
+        <v>0.04294239182999749</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2312935676493919</v>
+        <v>0.2231068814598711</v>
       </c>
     </row>
     <row r="26">
@@ -4903,19 +4903,19 @@
         <v>2810</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7947</v>
+        <v>7363</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06492744052180011</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01957299818781561</v>
+        <v>0.01954636544256582</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1836105338867909</v>
+        <v>0.1701178194517547</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6312</v>
+        <v>6301</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07430442557644458</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.231311534889467</v>
+        <v>0.2309146995654251</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -4945,19 +4945,19 @@
         <v>4838</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10586</v>
+        <v>11222</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0685534172485847</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02605382516916559</v>
+        <v>0.02599891755397208</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1500006332312833</v>
+        <v>0.1590190711899653</v>
       </c>
     </row>
     <row r="27">
@@ -4974,19 +4974,19 @@
         <v>28344</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21439</v>
+        <v>20856</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>34267</v>
+        <v>34393</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6548633692432291</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4953288804838756</v>
+        <v>0.4818600664546899</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7917250197731647</v>
+        <v>0.7946167160684563</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>14</v>
@@ -4995,19 +4995,19 @@
         <v>15184</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9932</v>
+        <v>10189</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>20265</v>
+        <v>20774</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5563964893145048</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3639713097192408</v>
+        <v>0.3733565368185626</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7426073514908613</v>
+        <v>0.7612417322713311</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>39</v>
@@ -5016,19 +5016,19 @@
         <v>43528</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>33965</v>
+        <v>34751</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>51607</v>
+        <v>52017</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6167873125043092</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4812851974787046</v>
+        <v>0.4924133478324644</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7312686535309258</v>
+        <v>0.7370734142491161</v>
       </c>
     </row>
     <row r="28">
@@ -5045,19 +5045,19 @@
         <v>8214</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4036</v>
+        <v>3631</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14938</v>
+        <v>14825</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1897880790080591</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09323795604271788</v>
+        <v>0.08390166757709715</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3451220421961985</v>
+        <v>0.3425317368993357</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -5079,19 +5079,19 @@
         <v>8215</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3820</v>
+        <v>3870</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14879</v>
+        <v>14956</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1163991215239555</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05412445685737123</v>
+        <v>0.05483473902725253</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2108337289797484</v>
+        <v>0.2119215733591972</v>
       </c>
     </row>
     <row r="29">
@@ -5121,19 +5121,19 @@
         <v>6273</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2112</v>
+        <v>2740</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11481</v>
+        <v>11284</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2298702141867454</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07738088567436693</v>
+        <v>0.1004207957281717</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4207026154060616</v>
+        <v>0.4134856604795161</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -5142,19 +5142,19 @@
         <v>6273</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2149</v>
+        <v>2188</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11859</v>
+        <v>12751</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08888827719836129</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03045308888158499</v>
+        <v>0.03100908197937027</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1680372904598551</v>
+        <v>0.1806841078069049</v>
       </c>
     </row>
     <row r="30">
@@ -5293,19 +5293,19 @@
         <v>17238</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10558</v>
+        <v>10530</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26871</v>
+        <v>26953</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06110286270854504</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03742320554603819</v>
+        <v>0.03732459575132745</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09524931024509514</v>
+        <v>0.09554029835167731</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -5314,19 +5314,19 @@
         <v>16971</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10536</v>
+        <v>9873</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27278</v>
+        <v>26160</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06669481313768384</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04140732076440887</v>
+        <v>0.03880199735871699</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1072012946806284</v>
+        <v>0.1028086212978289</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>33</v>
@@ -5335,19 +5335,19 @@
         <v>34209</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>24261</v>
+        <v>23278</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47508</v>
+        <v>45794</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06375470243391293</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04521431444251807</v>
+        <v>0.04338252093501056</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08854006847425337</v>
+        <v>0.08534633558057131</v>
       </c>
     </row>
     <row r="33">
@@ -5364,19 +5364,19 @@
         <v>20845</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>12923</v>
+        <v>13017</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>30968</v>
+        <v>32440</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07388708468131287</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04580704377852361</v>
+        <v>0.04613899635270958</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.109769607055483</v>
+        <v>0.1149897441482213</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>16</v>
@@ -5385,19 +5385,19 @@
         <v>16382</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>9447</v>
+        <v>10106</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>25303</v>
+        <v>25745</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06437930343672084</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03712537925795095</v>
+        <v>0.0397165782178026</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09944001669214872</v>
+        <v>0.1011791854648876</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>36</v>
@@ -5406,19 +5406,19 @@
         <v>37226</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>26741</v>
+        <v>25628</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>51702</v>
+        <v>49555</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06937826216508755</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04983622070762196</v>
+        <v>0.0477633466435081</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09635600672684046</v>
+        <v>0.09235613814485079</v>
       </c>
     </row>
     <row r="34">
@@ -5435,19 +5435,19 @@
         <v>186348</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>171172</v>
+        <v>168090</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>202072</v>
+        <v>202228</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6605381614333505</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6067453846565837</v>
+        <v>0.5958195661372672</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7162745775205916</v>
+        <v>0.7168288998244958</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>131</v>
@@ -5456,19 +5456,19 @@
         <v>140636</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>122740</v>
+        <v>124320</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>156314</v>
+        <v>156786</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5526952935109198</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4823662953934024</v>
+        <v>0.4885751601641301</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6143121641996112</v>
+        <v>0.6161648145033441</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>309</v>
@@ -5477,19 +5477,19 @@
         <v>326983</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>300988</v>
+        <v>304747</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>348841</v>
+        <v>350577</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6093964346104347</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5609492054802755</v>
+        <v>0.5679554497678319</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6501322257217391</v>
+        <v>0.6533687324995353</v>
       </c>
     </row>
     <row r="35">
@@ -5506,19 +5506,19 @@
         <v>38972</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>28172</v>
+        <v>27064</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>51262</v>
+        <v>50487</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1381408626992464</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09986088118183072</v>
+        <v>0.09593091189020751</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1817044360950346</v>
+        <v>0.1789591307505231</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>36</v>
@@ -5527,19 +5527,19 @@
         <v>38193</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>26727</v>
+        <v>28589</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>49165</v>
+        <v>51303</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1500963998590334</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1050356712317218</v>
+        <v>0.1123556365657123</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1932156779667186</v>
+        <v>0.2016184141922197</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>73</v>
@@ -5548,19 +5548,19 @@
         <v>77164</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>63774</v>
+        <v>61900</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>97287</v>
+        <v>96679</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1438104709656626</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1188549234010932</v>
+        <v>0.1153628115868175</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1813124113024485</v>
+        <v>0.1801793802336161</v>
       </c>
     </row>
     <row r="36">
@@ -5577,19 +5577,19 @@
         <v>17703</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10477</v>
+        <v>10685</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>26996</v>
+        <v>27828</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06274991371959543</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03713740366945725</v>
+        <v>0.03787513159952448</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09569249000159746</v>
+        <v>0.0986418969899715</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>39</v>
@@ -5598,19 +5598,19 @@
         <v>42274</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>31659</v>
+        <v>31663</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>56545</v>
+        <v>55366</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1661341900556421</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.124420412911311</v>
+        <v>0.1244335147666981</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2222190813389503</v>
+        <v>0.2175880456577919</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>56</v>
@@ -5619,19 +5619,19 @@
         <v>59976</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>47140</v>
+        <v>47747</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>76215</v>
+        <v>77529</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1117772673130288</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08785541131528905</v>
+        <v>0.08898561425780512</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.142041973370112</v>
+        <v>0.1444899541592227</v>
       </c>
     </row>
     <row r="37">
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5175</v>
+        <v>5048</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.003581114757949793</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01834390015184145</v>
+        <v>0.01789389170421261</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5058</v>
+        <v>5657</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.001882862511873465</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.009426080351865929</v>
+        <v>0.01054262330754496</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>7797</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3258</v>
+        <v>3138</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14979</v>
+        <v>14878</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1047192666205937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04375745420360933</v>
+        <v>0.04214968653897069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.201173374485378</v>
+        <v>0.1998124593598229</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6047,19 +6047,19 @@
         <v>4733</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1646</v>
+        <v>1134</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11398</v>
+        <v>11597</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0695132328009206</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02417534601939175</v>
+        <v>0.01665533371821076</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1674039057907911</v>
+        <v>0.1703373366668134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -6068,19 +6068,19 @@
         <v>12530</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6541</v>
+        <v>6763</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20264</v>
+        <v>21972</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0879032692481744</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04588910843301779</v>
+        <v>0.0474465605766322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1421632606059688</v>
+        <v>0.1541422426439998</v>
       </c>
     </row>
     <row r="5">
@@ -6097,19 +6097,19 @@
         <v>11055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5689</v>
+        <v>5941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18520</v>
+        <v>19011</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1484729840940314</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07640890681614408</v>
+        <v>0.07978930734480864</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2487295306633713</v>
+        <v>0.2553255626576579</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -6118,19 +6118,19 @@
         <v>3686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10359</v>
+        <v>9317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05413345990352975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01488915634154938</v>
+        <v>0.01516683497315706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1521508612354933</v>
+        <v>0.1368363090879368</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -6139,19 +6139,19 @@
         <v>14741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8110</v>
+        <v>8318</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24324</v>
+        <v>23607</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.10341215165183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05689387858268857</v>
+        <v>0.05835200895110603</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1706404946873063</v>
+        <v>0.1656114806576068</v>
       </c>
     </row>
     <row r="6">
@@ -6168,19 +6168,19 @@
         <v>35080</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26576</v>
+        <v>26187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44303</v>
+        <v>44714</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4711365206506218</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3569270480459757</v>
+        <v>0.3517053079643749</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5950021724773527</v>
+        <v>0.6005281579835622</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -6189,19 +6189,19 @@
         <v>43086</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34433</v>
+        <v>34385</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50904</v>
+        <v>50726</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6328239503633367</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5057306310765887</v>
+        <v>0.5050374624449996</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7476542830805039</v>
+        <v>0.7450365370555866</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -6210,19 +6210,19 @@
         <v>78166</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>65020</v>
+        <v>66700</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90019</v>
+        <v>91459</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.548365765135495</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.456142669135492</v>
+        <v>0.4679307669025884</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6315198704326949</v>
+        <v>0.641624070594806</v>
       </c>
     </row>
     <row r="7">
@@ -6239,19 +6239,19 @@
         <v>18632</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11168</v>
+        <v>11871</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26593</v>
+        <v>26867</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2502404111282051</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1499954444192985</v>
+        <v>0.1594358761709974</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3571577361255057</v>
+        <v>0.3608298739189694</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -6260,19 +6260,19 @@
         <v>13115</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6893</v>
+        <v>7376</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21042</v>
+        <v>20701</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1926214399136976</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1012430066891296</v>
+        <v>0.1083302676379621</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3090616135952383</v>
+        <v>0.3040431329741987</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -6281,19 +6281,19 @@
         <v>31747</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22193</v>
+        <v>22082</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43665</v>
+        <v>42412</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2227189790490474</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.155693047517302</v>
+        <v>0.1549163846496295</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3063314215062033</v>
+        <v>0.2975378854985966</v>
       </c>
     </row>
     <row r="8">
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6042</v>
+        <v>5904</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02543081750654798</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08114352442448804</v>
+        <v>0.07928752248125921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6629</v>
+        <v>7043</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02940372226064177</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09736630675229793</v>
+        <v>0.1034515529230126</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -6352,19 +6352,19 @@
         <v>3895</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9144</v>
+        <v>8894</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02732845687847805</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006878505067336295</v>
+        <v>0.006919515740588989</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06414562561021281</v>
+        <v>0.06239317811922448</v>
       </c>
     </row>
     <row r="9">
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7011</v>
+        <v>7364</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02150419475787361</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1029757210822113</v>
+        <v>0.1081616274354462</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7680</v>
+        <v>6032</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01027137803697518</v>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05388056596098102</v>
+        <v>0.0423137935605947</v>
       </c>
     </row>
     <row r="10">
@@ -6519,19 +6519,19 @@
         <v>3772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9151</v>
+        <v>8546</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07690676027057823</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01897335582496525</v>
+        <v>0.01858981731448848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.186576877374803</v>
+        <v>0.1742331782196787</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -6540,19 +6540,19 @@
         <v>4134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1173</v>
+        <v>1066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9299</v>
+        <v>9820</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08491655924605868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0241039063608872</v>
+        <v>0.02189991048712211</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1910343858367052</v>
+        <v>0.201729322603928</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -6561,19 +6561,19 @@
         <v>7906</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3891</v>
+        <v>3815</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15301</v>
+        <v>14714</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08089651000277255</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03981375121811867</v>
+        <v>0.03903886833433406</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1565741832094135</v>
+        <v>0.1505635685762345</v>
       </c>
     </row>
     <row r="12">
@@ -6603,19 +6603,19 @@
         <v>4245</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1172</v>
+        <v>1206</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9798</v>
+        <v>9903</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08719649378533655</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02408588560561202</v>
+        <v>0.02478393457712006</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2012912162784101</v>
+        <v>0.2034397687500485</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -6624,19 +6624,19 @@
         <v>4245</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10843</v>
+        <v>9808</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04343332320739841</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01108346722279977</v>
+        <v>0.01089959954065757</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1109560151667556</v>
+        <v>0.1003671404538988</v>
       </c>
     </row>
     <row r="13">
@@ -6653,19 +6653,19 @@
         <v>34221</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27294</v>
+        <v>27417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40399</v>
+        <v>40289</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6977125749523712</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5564788365907112</v>
+        <v>0.5589875667875036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8236728874638649</v>
+        <v>0.8214424778855414</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -6674,19 +6674,19 @@
         <v>30661</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23016</v>
+        <v>22718</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37076</v>
+        <v>37313</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6298829101789346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4728123140932292</v>
+        <v>0.4666938293553211</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7616557788076281</v>
+        <v>0.7665249025445593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -6695,19 +6695,19 @@
         <v>64882</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53770</v>
+        <v>55318</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73241</v>
+        <v>74157</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6639260357779074</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5502178290429504</v>
+        <v>0.5660602378786845</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7494594890465115</v>
+        <v>0.7588291873833197</v>
       </c>
     </row>
     <row r="14">
@@ -6724,19 +6724,19 @@
         <v>11054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5921</v>
+        <v>6073</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17883</v>
+        <v>18477</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2253806647770507</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1207124588415432</v>
+        <v>0.1238198309637798</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3646037690140357</v>
+        <v>0.3767268743638489</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -6745,19 +6745,19 @@
         <v>7362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3068</v>
+        <v>2593</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14310</v>
+        <v>14432</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1512456197205905</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06303230897029177</v>
+        <v>0.0532618439669057</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2939762881225525</v>
+        <v>0.2964791622103957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -6766,19 +6766,19 @@
         <v>18417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11239</v>
+        <v>10893</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27741</v>
+        <v>27722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.188453361474475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1150014722913488</v>
+        <v>0.1114666084701792</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2838660147655316</v>
+        <v>0.2836761911748972</v>
       </c>
     </row>
     <row r="15">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5616</v>
+        <v>6300</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0248736851262429</v>
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1153704245241415</v>
+        <v>0.129412828217804</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6137</v>
+        <v>6201</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01238979640748862</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06279664640808003</v>
+        <v>0.06345297635458366</v>
       </c>
     </row>
     <row r="16">
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5336</v>
+        <v>4966</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02188473194283675</v>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1096082754074911</v>
+        <v>0.1020162549985768</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4925</v>
+        <v>6034</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01090097312995801</v>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05039353859618825</v>
+        <v>0.0617442756093172</v>
       </c>
     </row>
     <row r="17">
@@ -6996,19 +6996,19 @@
         <v>2677</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6740</v>
+        <v>7192</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05846338113806825</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01688953107044602</v>
+        <v>0.01699226583909263</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.147212797907141</v>
+        <v>0.1570791885505586</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5310</v>
+        <v>5274</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02136770493035735</v>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.108252872156024</v>
+        <v>0.1075309246701868</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -7038,19 +7038,19 @@
         <v>3725</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>8439</v>
+        <v>8962</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0392766915393709</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01048015203206702</v>
+        <v>0.01028839946904076</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08899304237860514</v>
+        <v>0.09449772166377431</v>
       </c>
     </row>
     <row r="19">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6668</v>
+        <v>7512</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04951925769070033</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1456523435056694</v>
+        <v>0.1640709335897506</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -7088,19 +7088,19 @@
         <v>3975</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1012</v>
+        <v>969</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9575</v>
+        <v>8937</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08104522941868761</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02062453409029118</v>
+        <v>0.0197581144127583</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.195200926737494</v>
+        <v>0.1822052762910759</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -7109,19 +7109,19 @@
         <v>6242</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2218</v>
+        <v>2799</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13220</v>
+        <v>13103</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06582517513658495</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02338522116668651</v>
+        <v>0.02951664762731932</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1394054632456935</v>
+        <v>0.1381671594018119</v>
       </c>
     </row>
     <row r="20">
@@ -7138,19 +7138,19 @@
         <v>35726</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29393</v>
+        <v>29319</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40642</v>
+        <v>40721</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7803265769171244</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6420070027293246</v>
+        <v>0.6403796416698144</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.887701772582233</v>
+        <v>0.8894448637493281</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -7159,19 +7159,19 @@
         <v>35412</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27771</v>
+        <v>27433</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41106</v>
+        <v>41916</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.721958941836513</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5661765840814739</v>
+        <v>0.5592781591765521</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8380355242558174</v>
+        <v>0.8545484175083325</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -7180,19 +7180,19 @@
         <v>71138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62145</v>
+        <v>61929</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78673</v>
+        <v>78676</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.750137568078705</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.655312435594211</v>
+        <v>0.6530291105780031</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8295965289695346</v>
+        <v>0.829630859834784</v>
       </c>
     </row>
     <row r="21">
@@ -7209,19 +7209,19 @@
         <v>3086</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8307</v>
+        <v>8242</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06741153596077723</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02142123117886389</v>
+        <v>0.0215906420110688</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1814461235189095</v>
+        <v>0.1800297596268573</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -7230,19 +7230,19 @@
         <v>7070</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2925</v>
+        <v>2244</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14092</v>
+        <v>13967</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1441424480844377</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05964081022070607</v>
+        <v>0.04574916318601332</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2872952869918272</v>
+        <v>0.2847498310311359</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -7251,19 +7251,19 @@
         <v>10156</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5014</v>
+        <v>5252</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17912</v>
+        <v>18148</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1070984306085037</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05287513119729859</v>
+        <v>0.05537893237021672</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1888791752270392</v>
+        <v>0.191366527612119</v>
       </c>
     </row>
     <row r="22">
@@ -7283,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6717</v>
+        <v>6268</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04427924829332978</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.146713953859446</v>
+        <v>0.1369016256524468</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7527</v>
+        <v>6228</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03148567573000432</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1534518987334801</v>
+        <v>0.1269695757749407</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -7322,19 +7322,19 @@
         <v>3572</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9324</v>
+        <v>10406</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03766213463683542</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01063216503242415</v>
+        <v>0.01047483375495007</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09832449692899864</v>
+        <v>0.1097316064639919</v>
       </c>
     </row>
     <row r="23">
@@ -7473,19 +7473,19 @@
         <v>4062</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9809</v>
+        <v>9061</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1604905054706471</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04479677461776851</v>
+        <v>0.04398331641225143</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3875868742987243</v>
+        <v>0.3579969095657196</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -7494,19 +7494,19 @@
         <v>3245</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8095</v>
+        <v>8282</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1446847061771434</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0392017124778644</v>
+        <v>0.03828774032124162</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3609175317849098</v>
+        <v>0.3692547218542115</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -7515,19 +7515,19 @@
         <v>7307</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2937</v>
+        <v>2872</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14080</v>
+        <v>13428</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1530642591552916</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06152300540389864</v>
+        <v>0.0601686358588518</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2949216421480487</v>
+        <v>0.281267794971421</v>
       </c>
     </row>
     <row r="26">
@@ -7544,19 +7544,19 @@
         <v>3581</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8309</v>
+        <v>8397</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1415010054508652</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03638486207385414</v>
+        <v>0.03631737505467608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3283111791891657</v>
+        <v>0.3317801433670111</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -7565,19 +7565,19 @@
         <v>3023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7245</v>
+        <v>7237</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1347745913446118</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0</v>
+        <v>0.03952431464088096</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3230210226366616</v>
+        <v>0.3226685396919065</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -7586,19 +7586,19 @@
         <v>6604</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2821</v>
+        <v>2852</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11993</v>
+        <v>11825</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1383406459496123</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05908204850663905</v>
+        <v>0.05973370164498715</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2512231833971258</v>
+        <v>0.247692518601965</v>
       </c>
     </row>
     <row r="27">
@@ -7615,19 +7615,19 @@
         <v>11679</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6911</v>
+        <v>6685</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17081</v>
+        <v>16935</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4614539451674672</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.273050366281603</v>
+        <v>0.2641522444653134</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6748914859618098</v>
+        <v>0.6691398973997524</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -7636,19 +7636,19 @@
         <v>10858</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>5777</v>
+        <v>6342</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>16000</v>
+        <v>16114</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4841043806656399</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2575491427459119</v>
+        <v>0.2827646277752079</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7133448510593349</v>
+        <v>0.7183992663300519</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>22</v>
@@ -7657,19 +7657,19 @@
         <v>22538</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>16559</v>
+        <v>15759</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>30545</v>
+        <v>29806</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4720960968256018</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3468554305729645</v>
+        <v>0.3301050924199392</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6398157352829419</v>
+        <v>0.6243404824699912</v>
       </c>
     </row>
     <row r="28">
@@ -7686,19 +7686,19 @@
         <v>4064</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1026</v>
+        <v>1047</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8531</v>
+        <v>9463</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1605872304173437</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04052739404724696</v>
+        <v>0.04135914518230997</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3370542404112747</v>
+        <v>0.3738918968936736</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -7707,19 +7707,19 @@
         <v>5303</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2060</v>
+        <v>1169</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11456</v>
+        <v>11063</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2364363218126049</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09184903137258912</v>
+        <v>0.05213208058985471</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5107299325261961</v>
+        <v>0.4932363043365287</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -7728,19 +7728,19 @@
         <v>9368</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4248</v>
+        <v>4307</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16360</v>
+        <v>16698</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1962244054211181</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08898014160031455</v>
+        <v>0.09022289334379319</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3426870439856478</v>
+        <v>0.3497755720052514</v>
       </c>
     </row>
     <row r="29">
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5905</v>
+        <v>5871</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07596731349367676</v>
@@ -7769,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2333138885370868</v>
+        <v>0.231977216283021</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6664</v>
+        <v>6629</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04027459264837614</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1395961823895816</v>
+        <v>0.1388497619187167</v>
       </c>
     </row>
     <row r="30">
@@ -7942,19 +7942,19 @@
         <v>18308</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10128</v>
+        <v>11168</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27738</v>
+        <v>28524</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09408020931172695</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05204711427398995</v>
+        <v>0.05738823343105161</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1425380105114858</v>
+        <v>0.1465812342982605</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -7963,19 +7963,19 @@
         <v>13160</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6711</v>
+        <v>7007</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22372</v>
+        <v>22196</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06990832628927049</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03565082709469346</v>
+        <v>0.03722379482148607</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1188471131676887</v>
+        <v>0.1179128195816228</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>29</v>
@@ -7984,19 +7984,19 @@
         <v>31468</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22209</v>
+        <v>21616</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>43757</v>
+        <v>43889</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08219490985543264</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05801088188331294</v>
+        <v>0.05646266203695972</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.114295819552927</v>
+        <v>0.1146399205401136</v>
       </c>
     </row>
     <row r="33">
@@ -8013,19 +8013,19 @@
         <v>16903</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9977</v>
+        <v>10304</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>26970</v>
+        <v>26646</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08686346827483721</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05126914680592966</v>
+        <v>0.05295246163889131</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1385954530745509</v>
+        <v>0.1369301729894442</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>14</v>
@@ -8034,19 +8034,19 @@
         <v>14928</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>8718</v>
+        <v>8872</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>24331</v>
+        <v>25386</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07930438406548165</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04631487246684999</v>
+        <v>0.04713313594567152</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1292517269847333</v>
+        <v>0.1348593202064741</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>30</v>
@@ -8055,19 +8055,19 @@
         <v>31832</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20997</v>
+        <v>21653</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>43820</v>
+        <v>44299</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08314667139310192</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05484579627758578</v>
+        <v>0.05655925039730441</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1144599652644761</v>
+        <v>0.1157121543015635</v>
       </c>
     </row>
     <row r="34">
@@ -8084,19 +8084,19 @@
         <v>116706</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>103342</v>
+        <v>103000</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>130920</v>
+        <v>130529</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5997280082349442</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5310541796451252</v>
+        <v>0.5292952109578865</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6727731458373256</v>
+        <v>0.6707625722434284</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>109</v>
@@ -8105,19 +8105,19 @@
         <v>120018</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>107301</v>
+        <v>105675</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>133490</v>
+        <v>132943</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6375683307989095</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.570012420861799</v>
+        <v>0.5613746134240147</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7091371614259981</v>
+        <v>0.7062296254758408</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>223</v>
@@ -8126,19 +8126,19 @@
         <v>236724</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>217622</v>
+        <v>216002</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>254824</v>
+        <v>254229</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6183340706909668</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5684384810342267</v>
+        <v>0.5642090646033669</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6656136357000809</v>
+        <v>0.6640593212233246</v>
       </c>
     </row>
     <row r="35">
@@ -8155,19 +8155,19 @@
         <v>36837</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>27284</v>
+        <v>26773</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>50139</v>
+        <v>49301</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1892998936669658</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1402052921782408</v>
+        <v>0.1375814354850585</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2576565228648288</v>
+        <v>0.2533463305941726</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>28</v>
@@ -8176,19 +8176,19 @@
         <v>32850</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>22936</v>
+        <v>23817</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>44293</v>
+        <v>45620</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1745108155411887</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1218450968866095</v>
+        <v>0.1265235584485559</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2352980582884698</v>
+        <v>0.2423436897906512</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>63</v>
@@ -8197,19 +8197,19 @@
         <v>69688</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>53778</v>
+        <v>54565</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>85569</v>
+        <v>85824</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1820281133905143</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1404698175022032</v>
+        <v>0.1425255713666642</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2235115693628063</v>
+        <v>0.2241756462136917</v>
       </c>
     </row>
     <row r="36">
@@ -8226,19 +8226,19 @@
         <v>5843</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2025</v>
+        <v>2049</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12715</v>
+        <v>11692</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03002842051152585</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0104042542475579</v>
+        <v>0.01052985572391484</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06533923411727478</v>
+        <v>0.06008356911459122</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -8247,19 +8247,19 @@
         <v>4757</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1219</v>
+        <v>1080</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10813</v>
+        <v>11250</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02527117473874645</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006475083862781274</v>
+        <v>0.005736582184214834</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05744394182046238</v>
+        <v>0.05976090839141133</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -8268,19 +8268,19 @@
         <v>10601</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5203</v>
+        <v>5490</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19348</v>
+        <v>19316</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02768928580099689</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01359068974725339</v>
+        <v>0.01433992419771391</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05053695197363688</v>
+        <v>0.05045465334436584</v>
       </c>
     </row>
     <row r="37">
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>7727</v>
+        <v>8404</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01343696856640327</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04104756422059411</v>
+        <v>0.04464369949830006</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>8028</v>
+        <v>8555</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.006606948868987484</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02096960420624347</v>
+        <v>0.02234588489484152</v>
       </c>
     </row>
     <row r="38">
@@ -8675,19 +8675,19 @@
         <v>5731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2065</v>
+        <v>2021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11924</v>
+        <v>12636</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1370621777490984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04937813602999502</v>
+        <v>0.04833823156072541</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2851636002808042</v>
+        <v>0.3021993244231371</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -8696,19 +8696,19 @@
         <v>7478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3713</v>
+        <v>3771</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12925</v>
+        <v>12365</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1539262869111978</v>
+        <v>0.1539262869111977</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07643657722609215</v>
+        <v>0.07762809128706175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2660415408324028</v>
+        <v>0.2545143593682663</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -8717,19 +8717,19 @@
         <v>13209</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7948</v>
+        <v>7555</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21904</v>
+        <v>21547</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1461253334837974</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08792157570117566</v>
+        <v>0.08357419543156658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2423100513431777</v>
+        <v>0.2383615175845761</v>
       </c>
     </row>
     <row r="5">
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8335</v>
+        <v>7908</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05845409460385625</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1993301001639097</v>
+        <v>0.1891126408605472</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4179</v>
+        <v>4194</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02772261267917737</v>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08601433960477622</v>
+        <v>0.08632320124470072</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -8788,19 +8788,19 @@
         <v>3791</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1101</v>
+        <v>1195</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9397</v>
+        <v>9107</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04193829741799529</v>
+        <v>0.0419382974179953</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01218421189716305</v>
+        <v>0.01321542702819384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1039511535576989</v>
+        <v>0.1007414057923463</v>
       </c>
     </row>
     <row r="6">
@@ -8817,19 +8817,19 @@
         <v>16721</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10600</v>
+        <v>10322</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24003</v>
+        <v>23756</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3998794129112391</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.253491298627553</v>
+        <v>0.2468588547074789</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5740237483398233</v>
+        <v>0.5681200457139587</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -8838,19 +8838,19 @@
         <v>30610</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24516</v>
+        <v>25052</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36460</v>
+        <v>36370</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6300811611551916</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5046417744799144</v>
+        <v>0.5156669723864388</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7504898387267693</v>
+        <v>0.7486566961029405</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -8859,19 +8859,19 @@
         <v>47330</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37347</v>
+        <v>37799</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56726</v>
+        <v>56523</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5235950669479088</v>
+        <v>0.5235950669479089</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4131525371071882</v>
+        <v>0.4181537887245224</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6275320928018329</v>
+        <v>0.6252906607426592</v>
       </c>
     </row>
     <row r="7">
@@ -8888,19 +8888,19 @@
         <v>16919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10652</v>
+        <v>10697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23867</v>
+        <v>24239</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4046043147358064</v>
+        <v>0.4046043147358063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.254751706339587</v>
+        <v>0.25582481316191</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.570771154002348</v>
+        <v>0.579668808495196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -8909,19 +8909,19 @@
         <v>8472</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4693</v>
+        <v>4524</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13148</v>
+        <v>12775</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1743797059770134</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09659408263860833</v>
+        <v>0.0931215604447585</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2706329799857824</v>
+        <v>0.2629690619744095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -8930,19 +8930,19 @@
         <v>25390</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17636</v>
+        <v>17621</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34435</v>
+        <v>34450</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2808763749386388</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1951013069749862</v>
+        <v>0.194934902321134</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3809447286347552</v>
+        <v>0.3811103402220879</v>
       </c>
     </row>
     <row r="8">
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3046</v>
+        <v>3495</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01389023327741975</v>
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06270903557450351</v>
+        <v>0.07193355938684692</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3857</v>
+        <v>2879</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007464927211659626</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04266321496311831</v>
+        <v>0.0318448386984373</v>
       </c>
     </row>
     <row r="9">
@@ -9144,19 +9144,19 @@
         <v>4693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1361</v>
+        <v>938</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12071</v>
+        <v>10675</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09502518606276437</v>
+        <v>0.09502518606276439</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02756496173200432</v>
+        <v>0.0189873860252734</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.244433833166955</v>
+        <v>0.2161604982229435</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -9165,19 +9165,19 @@
         <v>7208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3841</v>
+        <v>3985</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11735</v>
+        <v>12256</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09853472635836444</v>
+        <v>0.09853472635836442</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05250402348852287</v>
+        <v>0.05447334578725976</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1604209980059985</v>
+        <v>0.1675346197551909</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -9186,19 +9186,19 @@
         <v>11901</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6839</v>
+        <v>6973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18820</v>
+        <v>20112</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09712035288996422</v>
+        <v>0.09712035288996423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05581336428547073</v>
+        <v>0.05690727832983324</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1535871921167226</v>
+        <v>0.1641315514618776</v>
       </c>
     </row>
     <row r="12">
@@ -9218,16 +9218,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9875</v>
+        <v>8573</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06247723835247439</v>
+        <v>0.06247723835247441</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1999603148109788</v>
+        <v>0.1736044673587009</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -9236,19 +9236,19 @@
         <v>3268</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1124</v>
+        <v>1145</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7979</v>
+        <v>8443</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04467438898533037</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01536384404914885</v>
+        <v>0.0156543914260696</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1090711332864402</v>
+        <v>0.1154131114637466</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -9257,19 +9257,19 @@
         <v>6353</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2375</v>
+        <v>2514</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13705</v>
+        <v>14455</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05184908301530974</v>
+        <v>0.05184908301530975</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01938350982678804</v>
+        <v>0.02051996223257496</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.111843516744435</v>
+        <v>0.1179626661223204</v>
       </c>
     </row>
     <row r="13">
@@ -9286,19 +9286,19 @@
         <v>32569</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25117</v>
+        <v>24334</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38775</v>
+        <v>38745</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6595092153094886</v>
+        <v>0.6595092153094887</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.508618622009837</v>
+        <v>0.492750937406868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7851901334656749</v>
+        <v>0.7845855746108128</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -9307,19 +9307,19 @@
         <v>45977</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39088</v>
+        <v>38611</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52668</v>
+        <v>52666</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.628505440669893</v>
+        <v>0.6285054406698929</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5343359708182535</v>
+        <v>0.5278134277461368</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7199645019516052</v>
+        <v>0.7199421721098344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -9328,19 +9328,19 @@
         <v>78546</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68892</v>
+        <v>68695</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88385</v>
+        <v>88012</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6410002156481085</v>
+        <v>0.6410002156481087</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5622154054911945</v>
+        <v>0.5606103029821078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7212953100104544</v>
+        <v>0.7182512452783752</v>
       </c>
     </row>
     <row r="14">
@@ -9357,19 +9357,19 @@
         <v>6250</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12091</v>
+        <v>11324</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1265632441725638</v>
+        <v>0.1265632441725639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05929383589720177</v>
+        <v>0.05931206217497306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2448448562749465</v>
+        <v>0.2293023223135796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -9378,19 +9378,19 @@
         <v>16091</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10195</v>
+        <v>10555</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22171</v>
+        <v>22479</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.219958717082941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1393720607102869</v>
+        <v>0.1442827361904991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3030767853738276</v>
+        <v>0.3072923812372788</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -9399,19 +9399,19 @@
         <v>22341</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15708</v>
+        <v>15591</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30713</v>
+        <v>30976</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1823195769600203</v>
+        <v>0.1823195769600204</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1281874499797688</v>
+        <v>0.1272357501975272</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2506427461467766</v>
+        <v>0.252791662271603</v>
       </c>
     </row>
     <row r="15">
@@ -9431,16 +9431,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9714</v>
+        <v>9059</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05642511610270879</v>
+        <v>0.0564251161027088</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1967117783312066</v>
+        <v>0.1834455675473852</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -9465,16 +9465,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9843</v>
+        <v>8756</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.02273978368823002</v>
+        <v>0.02273978368823003</v>
       </c>
       <c r="V15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0803255938612346</v>
+        <v>0.0714573504873659</v>
       </c>
     </row>
     <row r="16">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3134</v>
+        <v>3752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00832672690347124</v>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04283584545807551</v>
+        <v>0.05128392863415833</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -9528,16 +9528,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3068</v>
+        <v>3156</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.004970987798367095</v>
+        <v>0.004970987798367096</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02503540683998847</v>
+        <v>0.02575874544122464</v>
       </c>
     </row>
     <row r="17">
@@ -9629,19 +9629,19 @@
         <v>9195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3652</v>
+        <v>3614</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22461</v>
+        <v>22685</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1232175867248566</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04893700753188628</v>
+        <v>0.04842212231819165</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3009807927234082</v>
+        <v>0.3039888543813509</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -9650,19 +9650,19 @@
         <v>2375</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6791</v>
+        <v>6281</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04258863559080184</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01239665345989045</v>
+        <v>0.01197818517254674</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.121751918915296</v>
+        <v>0.1126079745133095</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -9671,19 +9671,19 @@
         <v>11571</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5648</v>
+        <v>5294</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25293</v>
+        <v>23361</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08872983748433448</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0433127858743794</v>
+        <v>0.04059541718065229</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1939652624572602</v>
+        <v>0.1791474297070884</v>
       </c>
     </row>
     <row r="19">
@@ -9700,19 +9700,19 @@
         <v>9775</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3795</v>
+        <v>4544</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20108</v>
+        <v>21869</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.130992679722568</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0508483276966113</v>
+        <v>0.06089244666398742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2694558946516088</v>
+        <v>0.2930548590966344</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -9721,19 +9721,19 @@
         <v>2994</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6181</v>
+        <v>6506</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05367892639053402</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02053228553435543</v>
+        <v>0.02057421333891204</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1108114601044511</v>
+        <v>0.1166366573750051</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -9742,19 +9742,19 @@
         <v>12769</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5904</v>
+        <v>6151</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23359</v>
+        <v>24269</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09792295352303436</v>
+        <v>0.09792295352303435</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04527737848440663</v>
+        <v>0.04717168324554909</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.179128678686639</v>
+        <v>0.1861121974913622</v>
       </c>
     </row>
     <row r="20">
@@ -9771,19 +9771,19 @@
         <v>38962</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28944</v>
+        <v>27437</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49590</v>
+        <v>47975</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5221044572198751</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3878540532970853</v>
+        <v>0.3676622793922867</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6645226706757735</v>
+        <v>0.6428868888651743</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -9792,19 +9792,19 @@
         <v>39245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33261</v>
+        <v>33148</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44578</v>
+        <v>44770</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7036127161500026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5963159934187091</v>
+        <v>0.5943040398711935</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7992098888623964</v>
+        <v>0.8026585904119056</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>107</v>
@@ -9813,19 +9813,19 @@
         <v>78208</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>64586</v>
+        <v>66276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>88538</v>
+        <v>90738</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5997417231277291</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4952828588843716</v>
+        <v>0.5082457505682229</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6789651137563528</v>
+        <v>0.6958347508102</v>
       </c>
     </row>
     <row r="21">
@@ -9842,19 +9842,19 @@
         <v>15550</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8913</v>
+        <v>9271</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22963</v>
+        <v>23634</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2083745116612866</v>
+        <v>0.2083745116612865</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1194394880169738</v>
+        <v>0.1242363489441103</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3077093309005912</v>
+        <v>0.3166991216685823</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -9863,19 +9863,19 @@
         <v>8179</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4500</v>
+        <v>4580</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13825</v>
+        <v>13506</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1466432622632621</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08068001193022038</v>
+        <v>0.08212029710805528</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2478627563319395</v>
+        <v>0.2421358588167104</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -9884,19 +9884,19 @@
         <v>23729</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>16148</v>
+        <v>15627</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32577</v>
+        <v>32846</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1819699532539281</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1238359096339001</v>
+        <v>0.119836563504395</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2498217181000411</v>
+        <v>0.2518841259940298</v>
       </c>
     </row>
     <row r="22">
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5705</v>
+        <v>5708</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01531076467141384</v>
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07645252169331132</v>
+        <v>0.07649269544368706</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -9934,19 +9934,19 @@
         <v>2983</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8375</v>
+        <v>8133</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05347645960539939</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01325037071313882</v>
+        <v>0.01312739357365986</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1501564628684566</v>
+        <v>0.1458179451940075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -9955,19 +9955,19 @@
         <v>4125</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1359</v>
+        <v>787</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10001</v>
+        <v>10460</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03163553261097372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01041851119301438</v>
+        <v>0.006034116404992873</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07669242630590349</v>
+        <v>0.0802113975022283</v>
       </c>
     </row>
     <row r="23">
@@ -10106,19 +10106,19 @@
         <v>9428</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4240</v>
+        <v>3825</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18439</v>
+        <v>18262</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.170802178544164</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07681333246538162</v>
+        <v>0.06929348234203087</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3340460229737969</v>
+        <v>0.3308332325650485</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -10127,19 +10127,19 @@
         <v>3150</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1165</v>
+        <v>1145</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6625</v>
+        <v>6576</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0610704236692563</v>
+        <v>0.06107042366925632</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02258046697276592</v>
+        <v>0.0222082224032404</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1284506478301444</v>
+        <v>0.127492924612253</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -10148,19 +10148,19 @@
         <v>12578</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7054</v>
+        <v>6765</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23512</v>
+        <v>23373</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1177974064712735</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06606277766508917</v>
+        <v>0.06336009753262169</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2201969215946171</v>
+        <v>0.2188899067086844</v>
       </c>
     </row>
     <row r="26">
@@ -10177,19 +10177,19 @@
         <v>4183</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9659</v>
+        <v>10409</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07577290431991719</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02088731715540159</v>
+        <v>0.02073425167495978</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.174974813027275</v>
+        <v>0.1885628407429689</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15013</v>
+        <v>15097</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07771107112804919</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2910780682956178</v>
+        <v>0.2927101362047515</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -10219,19 +10219,19 @@
         <v>8191</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3063</v>
+        <v>3271</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21767</v>
+        <v>21814</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.07670911544696415</v>
+        <v>0.07670911544696414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0286836209097882</v>
+        <v>0.03063203838689042</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.203851791903225</v>
+        <v>0.2042925130935736</v>
       </c>
     </row>
     <row r="27">
@@ -10248,19 +10248,19 @@
         <v>27937</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>18571</v>
+        <v>19118</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>35738</v>
+        <v>36375</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5061053949578694</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3364274005075719</v>
+        <v>0.3463460442017072</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6474301937619352</v>
+        <v>0.6589691016012347</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>37</v>
@@ -10269,19 +10269,19 @@
         <v>29119</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>21927</v>
+        <v>21706</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>36150</v>
+        <v>35900</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.564563860433917</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4251246364915118</v>
+        <v>0.4208378332624274</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7008797827634453</v>
+        <v>0.6960380972795326</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>62</v>
@@ -10290,19 +10290,19 @@
         <v>57056</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>45810</v>
+        <v>45334</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>67361</v>
+        <v>68258</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.5343431429262782</v>
+        <v>0.534343142926278</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4290192584674579</v>
+        <v>0.4245629127403903</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6308484967616395</v>
+        <v>0.6392515322796389</v>
       </c>
     </row>
     <row r="28">
@@ -10319,19 +10319,19 @@
         <v>11303</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6297</v>
+        <v>6099</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19459</v>
+        <v>20281</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.20476500756288</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1140776029574743</v>
+        <v>0.1104936679214811</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.352523649944714</v>
+        <v>0.3674152275901296</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -10340,19 +10340,19 @@
         <v>13321</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8186</v>
+        <v>8708</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19251</v>
+        <v>19121</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2582757990880479</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1587075892373577</v>
+        <v>0.1688282583656084</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3732459576480215</v>
+        <v>0.3707279834275361</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>33</v>
@@ -10361,19 +10361,19 @@
         <v>24624</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17186</v>
+        <v>17044</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34113</v>
+        <v>33961</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2306128335770073</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1609522129729275</v>
+        <v>0.1596173301989829</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3194722417450011</v>
+        <v>0.3180493461571782</v>
       </c>
     </row>
     <row r="29">
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5116</v>
+        <v>5205</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01696585732621517</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0926857565659522</v>
+        <v>0.09430233324161499</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -10411,19 +10411,19 @@
         <v>1980</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4870</v>
+        <v>5878</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03837884568072977</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009460546623770766</v>
+        <v>0.009717835536562787</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09441161187139485</v>
+        <v>0.1139661943747191</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -10432,19 +10432,19 @@
         <v>2916</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>936</v>
+        <v>725</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7505</v>
+        <v>7644</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.02730917652697318</v>
+        <v>0.02730917652697317</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008764076056469443</v>
+        <v>0.006791019652178439</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07028508221097481</v>
+        <v>0.07158463700295632</v>
       </c>
     </row>
     <row r="30">
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6118</v>
+        <v>6165</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02558865728895433</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1108379863324495</v>
+        <v>0.1116934717458284</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -10498,16 +10498,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8932</v>
+        <v>7277</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.01322832505150389</v>
+        <v>0.01322832505150388</v>
       </c>
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0836470135428396</v>
+        <v>0.06815266718832122</v>
       </c>
     </row>
     <row r="31">
@@ -10599,19 +10599,19 @@
         <v>29047</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18455</v>
+        <v>18208</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>42769</v>
+        <v>45162</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1314220168483564</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08349707807346521</v>
+        <v>0.08238092326908378</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.193505083451784</v>
+        <v>0.2043326781554413</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>30</v>
@@ -10620,19 +10620,19 @@
         <v>20211</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13797</v>
+        <v>14088</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27432</v>
+        <v>29099</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08822470183786395</v>
+        <v>0.08822470183786396</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06022418171688892</v>
+        <v>0.06149397054267028</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1197436364225051</v>
+        <v>0.1270191657198962</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>53</v>
@@ -10641,19 +10641,19 @@
         <v>49259</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>36744</v>
+        <v>37067</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>66028</v>
+        <v>67536</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1094362935141655</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08163215669712083</v>
+        <v>0.08235144795573614</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1466919828640403</v>
+        <v>0.1500415885804006</v>
       </c>
     </row>
     <row r="33">
@@ -10670,19 +10670,19 @@
         <v>19488</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>11618</v>
+        <v>10901</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>32631</v>
+        <v>32807</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0881697828418825</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05256539587857647</v>
+        <v>0.04931918687915268</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.147635486230063</v>
+        <v>0.1484314105977488</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>15</v>
@@ -10691,19 +10691,19 @@
         <v>11617</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>6527</v>
+        <v>6670</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>24159</v>
+        <v>23161</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05071001054873724</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02849173431848467</v>
+        <v>0.02911591689352619</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1054559817905422</v>
+        <v>0.1011012855496967</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>30</v>
@@ -10712,19 +10712,19 @@
         <v>31105</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20632</v>
+        <v>20428</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>45512</v>
+        <v>48109</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.06910424162482214</v>
+        <v>0.06910424162482215</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04583701621153034</v>
+        <v>0.04538364122152027</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.101113178442135</v>
+        <v>0.1068825412965826</v>
       </c>
     </row>
     <row r="34">
@@ -10741,19 +10741,19 @@
         <v>116189</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>99717</v>
+        <v>98589</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>132819</v>
+        <v>131312</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.5256854423038559</v>
+        <v>0.5256854423038561</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4511610184721474</v>
+        <v>0.4460562583913078</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6009304140575719</v>
+        <v>0.5941118936984393</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>226</v>
@@ -10762,19 +10762,19 @@
         <v>144952</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>131846</v>
+        <v>131167</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>156911</v>
+        <v>157091</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6327301958864578</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5755229483502988</v>
+        <v>0.5725611587531747</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6849334859796443</v>
+        <v>0.68572031606512</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>342</v>
@@ -10783,19 +10783,19 @@
         <v>261140</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>240413</v>
+        <v>239128</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>281776</v>
+        <v>281244</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5801669844106302</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5341178917571379</v>
+        <v>0.5312628903371731</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6260131140051485</v>
+        <v>0.6248314626049577</v>
       </c>
     </row>
     <row r="35">
@@ -10812,19 +10812,19 @@
         <v>50022</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>37188</v>
+        <v>38554</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>63726</v>
+        <v>62998</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2263183500794365</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1682523326010012</v>
+        <v>0.1744334737073606</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2883244972652557</v>
+        <v>0.2850285135283309</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>75</v>
@@ -10833,19 +10833,19 @@
         <v>46063</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>36703</v>
+        <v>37333</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>56957</v>
+        <v>57262</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2010696789448454</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1602127360948574</v>
+        <v>0.1629623313706547</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2486217652485578</v>
+        <v>0.2499553406359783</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>128</v>
@@ -10854,19 +10854,19 @@
         <v>96084</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>81733</v>
+        <v>80035</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>113330</v>
+        <v>113060</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2134677759642106</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1815839464076488</v>
+        <v>0.1778118065534137</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2517814107589065</v>
+        <v>0.2511828642982174</v>
       </c>
     </row>
     <row r="36">
@@ -10883,19 +10883,19 @@
         <v>4866</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1271</v>
+        <v>1350</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11844</v>
+        <v>12387</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02201366347697351</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005749653476553457</v>
+        <v>0.006107459099761117</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05358711017140289</v>
+        <v>0.05604533421290846</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -10904,19 +10904,19 @@
         <v>5637</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2391</v>
+        <v>2244</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12309</v>
+        <v>12006</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02460651458653982</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01043791504803434</v>
+        <v>0.009794654452136422</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05373182164878853</v>
+        <v>0.05240662976846279</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>11</v>
@@ -10925,19 +10925,19 @@
         <v>10503</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5449</v>
+        <v>5182</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>18395</v>
+        <v>18284</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02333332205130454</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01210511815804351</v>
+        <v>0.0115121922082394</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04086687724792804</v>
+        <v>0.04062062012167099</v>
       </c>
     </row>
     <row r="37">
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5815</v>
+        <v>7502</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.006390744449495008</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02631001226714536</v>
+        <v>0.03394207265970919</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3159</v>
+        <v>2529</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.002658898195555667</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01378958662556546</v>
+        <v>0.01104151718391665</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7183</v>
+        <v>7201</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.004491382434867052</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01595918100655147</v>
+        <v>0.01599745455716057</v>
       </c>
     </row>
     <row r="38">
